--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,6 +87,8 @@
     <t>A profile showing how HDR labTests will be exposed using FHIR API to MyHealtheVet PHR.
 One Observation holds one `labTests`
 - This profile is based on [US-Core Lab](https://hl7.org/fhir/us/core/StructureDefinition-us-core-observation-lab.html)
+	- category must have `http://terminology.hl7.org/CodeSystem/observation-category#laboratory`
+	- subject must be the patient
 - `orderedTestCode -&gt; `.category`
 - 'chemistryResults`
   - `valueInterpretation` -&gt; `.interpretation` (mock data has `L`, `H`, or absent) (? low, high, normal ?)
@@ -971,7 +973,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.organization)
 </t>
   </si>
   <si>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,6 +96,7 @@
   - `testIdentifier` -&gt; `.code` -- where "LN" is Loinc
   - `referenceRange` -&gt; `.referenceRange.text` -- don't try to break out further as there is little use of this value
   - `labCommentEvents` -&gt; `.note.text`
+  - value[x] either String or Quantity with units
   - `observationValue` -&gt; `.valueQuantity.value`
   - `observationUnits.unit` -&gt; `.valueQuantity.unit`
   - `observationUnits.code` -&gt; `.valueQuantity.code` - likely need to adjust some
@@ -1004,53 +1005,54 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+string</t>
+  </si>
+  <si>
+    <t>observationValue</t>
+  </si>
+  <si>
+    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD** be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults) if the concept exists. If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>obs-7
+us-core-2us-core-3us-core-4</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity
 </t>
-  </si>
-  <si>
-    <t>observationValue</t>
-  </si>
-  <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD** be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults) if the concept exists. If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>obs-7
-us-core-2us-core-3us-core-4</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
   </si>
   <si>
     <t>Result Value</t>
@@ -5332,7 +5334,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>93</v>
@@ -5403,7 +5405,7 @@
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>307</v>
@@ -5415,28 +5417,28 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>83</v>
@@ -5444,20 +5446,20 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>93</v>
@@ -5472,7 +5474,7 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>323</v>
@@ -5542,28 +5544,28 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>324</v>
@@ -9135,16 +9137,16 @@
         <v>485</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>VA MHV PHR CH labTest</t>
+    <t>VA MHV PHR CH labTest.chemistryResults</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,24 +84,22 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile showing how HDR labTests will be exposed using FHIR API to MyHealtheVet PHR.
-One Observation holds one `labTests`
+    <t>A profile showing how HDR labTests.chemistryResults will be exposed using FHIR API to MyHealtheVet PHR.
+One Observation holds one `labTests.chemistryResults`
 - This profile is based on [US-Core Lab](https://hl7.org/fhir/us/core/StructureDefinition-us-core-observation-lab.html)
 	- category must have `http://terminology.hl7.org/CodeSystem/observation-category#laboratory`
-	- subject must be the patient
-- `orderedTestCode -&gt; `.category`
-- 'chemistryResults`
-  - `valueInterpretation` -&gt; `.interpretation` (mock data has `L`, `H`, or absent) (? low, high, normal ?)
-  - `observedStatus` (mock data has `F`, `C`, ) (? final vs preliminary ?)
-  - `testIdentifier` -&gt; `.code` -- where "LN" is Loinc
-  - `referenceRange` -&gt; `.referenceRange.text` -- don't try to break out further as there is little use of this value
-  - `labCommentEvents` -&gt; `.note.text`
-  - value[x] either String or Quantity with units
-  - `observationValue` -&gt; `.valueQuantity.value`
-  - `observationUnits.unit` -&gt; `.valueQuantity.unit`
-  - `observationUnits.code` -&gt; `.valueQuantity.code` - likely need to adjust some
-  - `observationUnits.codingSystem` -&gt; `.valueQuantity.system`
-  - `performingOrganization` -&gt; `.performer`
+- subject must be the patient
+- `valueInterpretation` -&gt; `.interpretation` (mock data has `L`, `H`, or absent) (? low, high, normal ?)
+- `observedStatus` (mock data has `F`, `C`, ) (? final vs preliminary ?)
+- `testIdentifier` -&gt; `.code` -- where "LN" is Loinc
+- `referenceRange` -&gt; `.referenceRange.text` -- don't try to break out further as there is little use of this value
+- `labCommentEvents` -&gt; `.note.text`
+- value[x] either String or Quantity with units
+- `observationValue` -&gt; `.valueQuantity.value`
+- `observationUnits.unit` -&gt; `.valueQuantity.unit`
+- `observationUnits.code` -&gt; `.valueQuantity.code` - likely need to adjust some
+- `observationUnits.codingSystem` -&gt; `.valueQuantity.system`
+- `performingOrganization` -&gt; `.performer`
 - given this is contained in the DiagnosticReport, then 
   - no `.subject` is populated
   - effective[x] is presumed from the DiagnosticReport
@@ -634,7 +632,7 @@
 </t>
   </si>
   <si>
-    <t>orderedTestCode</t>
+    <t>`laboratory`</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -663,9 +661,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>`laboratory`</t>
   </si>
   <si>
     <t>Observation.category:Laboratory</t>
@@ -3828,18 +3823,18 @@
         <v>83</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -3864,7 +3859,7 @@
         <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>192</v>
@@ -3883,7 +3878,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3960,14 +3955,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3989,16 +3984,16 @@
         <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -4023,14 +4018,14 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
       </c>
@@ -4047,7 +4042,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>93</v>
@@ -4062,33 +4057,33 @@
         <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AP17" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AQ17" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4111,13 +4106,13 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4168,7 +4163,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4192,7 +4187,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4206,10 +4201,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4238,7 +4233,7 @@
         <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>142</v>
@@ -4279,10 +4274,10 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AC19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>83</v>
@@ -4291,7 +4286,7 @@
         <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4315,7 +4310,7 @@
         <v>83</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4329,10 +4324,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4343,7 +4338,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>94</v>
@@ -4355,19 +4350,19 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4416,7 +4411,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4437,10 +4432,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4454,10 +4449,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4480,19 +4475,19 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4541,7 +4536,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4562,11 +4557,11 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN21" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4574,15 +4569,15 @@
         <v>83</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4605,19 +4600,19 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4666,7 +4661,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4681,19 +4676,19 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4704,10 +4699,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4730,16 +4725,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4789,7 +4784,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4810,13 +4805,13 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4827,14 +4822,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4853,19 +4848,19 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4914,7 +4909,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4929,19 +4924,19 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4952,14 +4947,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4978,19 +4973,19 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5039,7 +5034,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5048,25 +5043,25 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5077,10 +5072,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5103,16 +5098,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5162,7 +5157,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5183,13 +5178,13 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5200,10 +5195,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5226,17 +5221,17 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5285,7 +5280,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5300,33 +5295,33 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AO27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ27" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5349,19 +5344,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5398,7 +5393,7 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
@@ -5408,7 +5403,7 @@
         <v>198</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5417,28 +5412,28 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>83</v>
@@ -5446,13 +5441,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>83</v>
@@ -5474,19 +5469,19 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="M29" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5535,7 +5530,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5544,39 +5539,39 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AO29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AQ29" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5602,16 +5597,16 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5636,11 +5631,11 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5658,7 +5653,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5667,7 +5662,7 @@
         <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>105</v>
@@ -5682,7 +5677,7 @@
         <v>136</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5696,14 +5691,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5725,16 +5720,16 @@
         <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5759,14 +5754,14 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5783,7 +5778,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5801,19 +5796,19 @@
         <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>83</v>
@@ -5821,10 +5816,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5847,13 +5842,13 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5904,7 +5899,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5928,7 +5923,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5942,10 +5937,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5974,7 +5969,7 @@
         <v>140</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>142</v>
@@ -6015,10 +6010,10 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>83</v>
@@ -6027,7 +6022,7 @@
         <v>198</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6051,7 +6046,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6065,10 +6060,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6091,19 +6086,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6152,7 +6147,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6173,10 +6168,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6190,10 +6185,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6216,19 +6211,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6277,7 +6272,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6298,11 +6293,11 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6310,15 +6305,15 @@
         <v>83</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6341,19 +6336,19 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6402,7 +6397,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6423,10 +6418,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6440,10 +6435,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6469,13 +6464,13 @@
         <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6501,14 +6496,14 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6525,7 +6520,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6543,19 +6538,19 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>83</v>
@@ -6563,10 +6558,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6592,16 +6587,16 @@
         <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6626,14 +6621,14 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6650,7 +6645,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6671,10 +6666,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6688,10 +6683,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6714,16 +6709,16 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6773,7 +6768,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6791,19 +6786,19 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>83</v>
@@ -6811,10 +6806,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6837,16 +6832,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6896,7 +6891,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6914,19 +6909,19 @@
         <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>83</v>
@@ -6934,10 +6929,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6960,19 +6955,19 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7021,7 +7016,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7033,19 +7028,19 @@
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7059,10 +7054,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7085,13 +7080,13 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7142,7 +7137,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7166,7 +7161,7 @@
         <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7180,10 +7175,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7212,7 +7207,7 @@
         <v>140</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>142</v>
@@ -7265,7 +7260,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7289,7 +7284,7 @@
         <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7303,14 +7298,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7332,10 +7327,10 @@
         <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>142</v>
@@ -7390,7 +7385,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7428,10 +7423,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7454,13 +7449,13 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7511,7 +7506,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7520,7 +7515,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7532,10 +7527,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7549,10 +7544,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7575,13 +7570,13 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7632,7 +7627,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7641,7 +7636,7 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7653,10 +7648,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7670,10 +7665,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7699,16 +7694,16 @@
         <v>190</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7736,11 +7731,11 @@
         <v>117</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7757,7 +7752,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7775,13 +7770,13 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AN47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7795,10 +7790,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7824,16 +7819,16 @@
         <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7858,14 +7853,14 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7882,7 +7877,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7900,13 +7895,13 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AN48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7920,10 +7915,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7946,17 +7941,17 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8005,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8029,7 +8024,7 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8043,10 +8038,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8069,13 +8064,13 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8126,7 +8121,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8147,10 +8142,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8164,10 +8159,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8178,7 +8173,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -8190,16 +8185,16 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8249,7 +8244,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8270,10 +8265,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8287,10 +8282,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8313,16 +8308,16 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8372,7 +8367,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8393,10 +8388,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8410,10 +8405,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8436,19 +8431,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8497,7 +8492,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8518,10 +8513,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8535,10 +8530,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8561,13 +8556,13 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8618,7 +8613,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8642,7 +8637,7 @@
         <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8656,10 +8651,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8688,7 +8683,7 @@
         <v>140</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>142</v>
@@ -8741,7 +8736,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8765,7 +8760,7 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8779,14 +8774,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8808,10 +8803,10 @@
         <v>139</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>142</v>
@@ -8866,7 +8861,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8904,10 +8899,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8933,16 +8928,16 @@
         <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="O57" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8967,13 +8962,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8991,7 +8986,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>93</v>
@@ -9009,16 +9004,16 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9029,10 +9024,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9055,19 +9050,19 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="O58" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9116,7 +9111,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9134,19 +9129,19 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>83</v>
@@ -9154,10 +9149,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9183,16 +9178,16 @@
         <v>190</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9217,13 +9212,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9241,7 +9236,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9250,7 +9245,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9265,7 +9260,7 @@
         <v>136</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9279,14 +9274,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9308,16 +9303,16 @@
         <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9342,14 +9337,14 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9366,7 +9361,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9384,19 +9379,19 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>83</v>
@@ -9404,10 +9399,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9433,16 +9428,16 @@
         <v>83</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="N61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9491,7 +9486,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9512,10 +9507,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,8 +88,10 @@
 One Observation holds one `labTests.chemistryResults`
 - This profile is based on [US-Core Lab](https://hl7.org/fhir/us/core/StructureDefinition-us-core-observation-lab.html)
 	- category must have `http://terminology.hl7.org/CodeSystem/observation-category#laboratory`
-- subject must be the patient
-- `valueInterpretation` -&gt; `.interpretation` (mock data has `L`, `H`, or absent) (? low, high, normal ?)
+- `.subject` must be the patient from the DiagnosticReport
+- `valueInterpretation` -&gt; `.interpretation` 
+  - `L` -&gt; http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation#L
+  - 'H' -&gt; http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation#H
 - `observedStatus` (mock data has `F`, `C`, ) (? final vs preliminary ?)
 - `testIdentifier` -&gt; `.code` -- where "LN" is Loinc
 - `referenceRange` -&gt; `.referenceRange.text` -- don't try to break out further as there is little use of this value
@@ -101,10 +103,10 @@
 - `observationUnits.codingSystem` -&gt; `.valueQuantity.system`
 - `performingOrganization` -&gt; `.performer`
 - given this is contained in the DiagnosticReport, then 
-  - no `.subject` is populated
   - effective[x] is presumed from the DiagnosticReport
   - issued is presumed from the DiagnosticReport
-  - specimen is presumed from the DiagnosticReport</t>
+  - specimen is presumed from the DiagnosticReport
+- will not have a `.hasMember` as this is results not a panel</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -623,6 +625,9 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>~observedStatus</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -844,6 +849,9 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Observation.focus</t>
   </si>
   <si>
@@ -1020,6 +1028,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>obs-7
 us-core-2us-core-3us-core-4</t>
   </si>
@@ -1053,7 +1064,16 @@
     <t>Result Value</t>
   </si>
   <si>
-    <t>observatonValue</t>
+    <t>observatonValue when quantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>observationValue when string</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1129,6 +1149,9 @@
   </si>
   <si>
     <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>`H` -&gt; http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation#H</t>
   </si>
   <si>
     <t>Observation.interpretation.text</t>
@@ -1920,7 +1943,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ61"/>
+  <dimension ref="A1:AQ62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1970,7 +1993,7 @@
     <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="38.5703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="71.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3700,15 +3723,15 @@
         <v>83</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3731,19 +3754,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3771,26 +3794,26 @@
         <v>117</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3814,27 +3837,27 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -3856,19 +3879,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3878,7 +3901,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3896,10 +3919,10 @@
         <v>117</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3917,7 +3940,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3941,10 +3964,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3955,14 +3978,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3981,19 +4004,19 @@
         <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -4018,13 +4041,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -4042,7 +4065,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>93</v>
@@ -4057,33 +4080,33 @@
         <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4106,13 +4129,13 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4163,7 +4186,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4187,7 +4210,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4201,10 +4224,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4233,7 +4256,7 @@
         <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>142</v>
@@ -4274,19 +4297,19 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4310,7 +4333,7 @@
         <v>83</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4324,10 +4347,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4350,19 +4373,19 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4411,7 +4434,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4432,10 +4455,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4444,15 +4467,15 @@
         <v>83</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>83</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4475,19 +4498,19 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4536,7 +4559,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4557,10 +4580,10 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4569,15 +4592,15 @@
         <v>83</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4600,19 +4623,19 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4661,7 +4684,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4676,33 +4699,33 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>83</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4725,16 +4748,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4784,7 +4807,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4805,13 +4828,13 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4822,14 +4845,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4848,19 +4871,19 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4909,7 +4932,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4924,19 +4947,19 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4947,14 +4970,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4973,19 +4996,19 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5034,7 +5057,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5043,25 +5066,25 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5072,10 +5095,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5098,16 +5121,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5157,7 +5180,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5178,13 +5201,13 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5195,10 +5218,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5221,17 +5244,17 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5280,7 +5303,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5295,33 +5318,33 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5344,19 +5367,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5393,17 +5416,17 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5412,28 +5435,28 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>83</v>
@@ -5441,13 +5464,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>83</v>
@@ -5469,19 +5492,19 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5530,7 +5553,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5539,41 +5562,43 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5582,7 +5607,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>94</v>
@@ -5591,22 +5616,22 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>325</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5631,11 +5656,13 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5653,7 +5680,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5662,50 +5689,50 @@
         <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>136</v>
+        <v>319</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>83</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>94</v>
@@ -5717,19 +5744,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5754,13 +5781,11 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5778,16 +5803,16 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
@@ -5796,19 +5821,19 @@
         <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>83</v>
@@ -5816,24 +5841,24 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>83</v>
@@ -5842,16 +5867,20 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5875,13 +5904,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>83</v>
+        <v>345</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5899,37 +5928,37 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>83</v>
+        <v>347</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>225</v>
+        <v>348</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>83</v>
@@ -5937,21 +5966,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5963,17 +5992,15 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -6010,31 +6037,31 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6046,7 +6073,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6060,14 +6087,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6083,23 +6110,21 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>347</v>
+        <v>140</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6135,19 +6160,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6159,7 +6184,7 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
@@ -6168,10 +6193,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6185,10 +6210,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6199,10 +6224,10 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>83</v>
@@ -6211,19 +6236,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6272,13 +6297,13 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>83</v>
@@ -6293,10 +6318,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6305,15 +6330,15 @@
         <v>83</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6324,7 +6349,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>94</v>
@@ -6333,22 +6358,22 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6397,13 +6422,13 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
@@ -6418,27 +6443,27 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6449,10 +6474,10 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>83</v>
@@ -6461,7 +6486,7 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>359</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>360</v>
@@ -6472,7 +6497,9 @@
       <c r="N37" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6496,13 +6523,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6520,13 +6547,13 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
@@ -6538,19 +6565,19 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>369</v>
+        <v>83</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>83</v>
@@ -6558,10 +6585,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6584,20 +6611,18 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6621,13 +6646,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6645,7 +6670,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6663,19 +6688,19 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>83</v>
@@ -6683,10 +6708,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6709,18 +6734,20 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6744,13 +6771,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6768,7 +6795,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6786,19 +6813,19 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>83</v>
@@ -6806,10 +6833,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6832,16 +6859,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6891,7 +6918,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6909,19 +6936,19 @@
         <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>83</v>
@@ -6929,10 +6956,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6943,7 +6970,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -6955,20 +6982,18 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
       </c>
@@ -7016,37 +7041,37 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>83</v>
@@ -7054,10 +7079,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7068,10 +7093,10 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>83</v>
@@ -7080,16 +7105,20 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>222</v>
+        <v>406</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7137,19 +7166,19 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>224</v>
+        <v>404</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7158,10 +7187,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7175,21 +7204,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7201,17 +7230,15 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7260,19 +7287,19 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7284,7 +7311,7 @@
         <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7298,14 +7325,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>409</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7318,26 +7345,24 @@
         <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>411</v>
+        <v>228</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O44" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7385,7 +7410,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>412</v>
+        <v>231</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7409,7 +7434,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7423,42 +7448,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>414</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7506,19 +7535,19 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7527,10 +7556,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>418</v>
+        <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>419</v>
+        <v>136</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7558,7 +7587,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7570,13 +7599,13 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7636,7 +7665,7 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7648,10 +7677,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7665,10 +7694,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7679,7 +7708,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7691,20 +7720,16 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7728,13 +7753,13 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -7752,7 +7777,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7761,7 +7786,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7770,13 +7795,13 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7790,10 +7815,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7804,7 +7829,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7816,19 +7841,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7853,13 +7878,13 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>363</v>
+        <v>117</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7877,13 +7902,13 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
@@ -7895,13 +7920,13 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7929,7 +7954,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>83</v>
@@ -7941,15 +7966,17 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>444</v>
       </c>
@@ -7976,13 +8003,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>83</v>
+        <v>446</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8006,7 +8033,7 @@
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>83</v>
@@ -8018,13 +8045,13 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>83</v>
+        <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8038,10 +8065,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8052,7 +8079,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -8064,16 +8091,18 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>221</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8121,7 +8150,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8142,10 +8171,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>418</v>
+        <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8159,10 +8188,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8173,29 +8202,27 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>451</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8244,13 +8271,13 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
@@ -8265,7 +8292,7 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>456</v>
@@ -8388,10 +8415,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8405,10 +8432,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8431,20 +8458,18 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8492,7 +8517,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8513,7 +8538,7 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>469</v>
@@ -8544,7 +8569,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8553,19 +8578,23 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>222</v>
+        <v>471</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8613,19 +8642,19 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>224</v>
+        <v>470</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
@@ -8634,10 +8663,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>83</v>
+        <v>475</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>225</v>
+        <v>476</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8651,21 +8680,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8677,17 +8706,15 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8736,19 +8763,19 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
@@ -8760,7 +8787,7 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8774,14 +8801,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>409</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8794,26 +8821,24 @@
         <v>83</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>228</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8861,7 +8886,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>412</v>
+        <v>231</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8885,7 +8910,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8899,45 +8924,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>476</v>
+        <v>142</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8962,13 +8987,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>477</v>
+        <v>83</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8986,34 +9011,34 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>478</v>
+        <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9024,10 +9049,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9035,7 +9060,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>93</v>
@@ -9050,7 +9075,7 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>480</v>
+        <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>481</v>
@@ -9062,7 +9087,7 @@
         <v>483</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9087,13 +9112,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>83</v>
+        <v>484</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9111,10 +9136,10 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>93</v>
@@ -9129,19 +9154,19 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>318</v>
+        <v>83</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>83</v>
@@ -9149,10 +9174,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9172,22 +9197,22 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>190</v>
+        <v>487</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9212,13 +9237,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9236,7 +9261,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9245,7 +9270,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9254,19 +9279,19 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>83</v>
+        <v>491</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>136</v>
+        <v>319</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>83</v>
@@ -9274,21 +9299,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9300,19 +9325,19 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9337,13 +9362,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>338</v>
+        <v>496</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9361,16 +9386,16 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9379,19 +9404,19 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>83</v>
@@ -9399,14 +9424,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9425,19 +9450,19 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>493</v>
+        <v>340</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>494</v>
+        <v>341</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9462,13 +9487,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>83</v>
+        <v>345</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9486,7 +9511,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9504,26 +9529,151 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="AQ61" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ61">
+  <autoFilter ref="A1:AQ62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9533,7 +9683,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.chTest</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chTest</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -848,7 +848,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.organization)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization)
 </t>
   </si>
   <si>
@@ -1832,7 +1832,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="118.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1965,19 +1969,19 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>40</v>
@@ -1986,15 +1990,15 @@
         <v>40</v>
       </c>
       <c r="AQ1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2005,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2014,19 +2018,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2076,13 +2080,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2114,10 +2118,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2128,7 +2132,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2137,16 +2141,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2197,19 +2201,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2235,10 +2239,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2249,28 +2253,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2320,19 +2324,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2358,10 +2362,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2372,7 +2376,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2384,16 +2388,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2419,13 +2423,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2443,19 +2447,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2481,21 +2485,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2507,16 +2511,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2566,19 +2570,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2590,7 +2594,7 @@
         <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>40</v>
@@ -2604,14 +2608,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2630,16 +2634,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2689,7 +2693,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2713,7 +2717,7 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>40</v>
@@ -2727,14 +2731,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2753,16 +2757,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2812,7 +2816,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2824,7 +2828,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2836,7 +2840,7 @@
         <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>40</v>
@@ -2850,14 +2854,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2870,25 +2874,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -2937,7 +2941,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2949,7 +2953,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2961,7 +2965,7 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>40</v>
@@ -2975,10 +2979,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2998,20 +3002,20 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -3060,7 +3064,7 @@
         <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3072,22 +3076,22 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>40</v>
@@ -3098,14 +3102,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3121,20 +3125,20 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -3183,7 +3187,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3195,19 +3199,19 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>40</v>
@@ -3221,14 +3225,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3244,19 +3248,19 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3306,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3318,19 +3322,19 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>40</v>
@@ -3344,10 +3348,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3355,34 +3359,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>40</v>
@@ -3407,11 +3411,11 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>40</v>
@@ -3429,48 +3433,48 @@
         <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3478,13 +3482,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>40</v>
@@ -3493,19 +3497,19 @@
         <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -3530,29 +3534,29 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3564,7 +3568,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -3576,40 +3580,40 @@
         <v>40</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>40</v>
@@ -3618,19 +3622,19 @@
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -3640,7 +3644,7 @@
         <v>40</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>40</v>
@@ -3655,13 +3659,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -3679,7 +3683,7 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3691,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -3703,10 +3707,10 @@
         <v>40</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>40</v>
@@ -3717,45 +3721,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
@@ -3780,13 +3784,13 @@
         <v>40</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>40</v>
@@ -3804,48 +3808,48 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3856,7 +3860,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -3868,13 +3872,13 @@
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3925,13 +3929,13 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
@@ -3949,7 +3953,7 @@
         <v>40</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -3963,14 +3967,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3989,16 +3993,16 @@
         <v>40</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4036,19 +4040,19 @@
         <v>40</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -4060,7 +4064,7 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -4072,7 +4076,7 @@
         <v>40</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4086,10 +4090,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4103,28 +4107,28 @@
         <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>40</v>
@@ -4173,7 +4177,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4185,7 +4189,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -4194,10 +4198,10 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4206,15 +4210,15 @@
         <v>40</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4225,7 +4229,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -4234,22 +4238,22 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
@@ -4298,19 +4302,19 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -4319,10 +4323,10 @@
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4331,15 +4335,15 @@
         <v>40</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4347,34 +4351,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>40</v>
@@ -4423,48 +4427,48 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4484,19 +4488,19 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4546,7 +4550,7 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4558,7 +4562,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -4567,13 +4571,13 @@
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>40</v>
@@ -4584,14 +4588,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4607,22 +4611,22 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -4671,34 +4675,34 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>40</v>
@@ -4709,14 +4713,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4726,28 +4730,28 @@
         <v>38</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -4796,34 +4800,34 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>40</v>
@@ -4834,10 +4838,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4857,19 +4861,19 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4919,19 +4923,19 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -4940,13 +4944,13 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>40</v>
@@ -4957,10 +4961,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4974,26 +4978,26 @@
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -5042,7 +5046,7 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5054,36 +5058,36 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5094,31 +5098,31 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5155,47 +5159,47 @@
         <v>40</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>40</v>
@@ -5203,13 +5207,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>40</v>
@@ -5219,31 +5223,31 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
@@ -5292,51 +5296,51 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>40</v>
@@ -5346,31 +5350,31 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>40</v>
@@ -5419,48 +5423,48 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5474,7 +5478,7 @@
         <v>38</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
@@ -5483,19 +5487,19 @@
         <v>40</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
@@ -5520,11 +5524,11 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
@@ -5542,19 +5546,19 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -5563,10 +5567,10 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>40</v>
@@ -5580,14 +5584,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5597,7 +5601,7 @@
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>40</v>
@@ -5606,19 +5610,19 @@
         <v>40</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>40</v>
@@ -5643,13 +5647,13 @@
         <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>40</v>
@@ -5667,7 +5671,7 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5679,25 +5683,25 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>40</v>
@@ -5705,10 +5709,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5719,7 +5723,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -5731,13 +5735,13 @@
         <v>40</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5788,13 +5792,13 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
@@ -5812,7 +5816,7 @@
         <v>40</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>40</v>
@@ -5826,14 +5830,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5852,16 +5856,16 @@
         <v>40</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5899,19 +5903,19 @@
         <v>40</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5923,7 +5927,7 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -5935,7 +5939,7 @@
         <v>40</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>40</v>
@@ -5949,10 +5953,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5972,22 +5976,22 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -6036,7 +6040,7 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -6048,7 +6052,7 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -6057,10 +6061,10 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>40</v>
@@ -6069,15 +6073,15 @@
         <v>40</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6088,31 +6092,31 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6161,19 +6165,19 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -6182,10 +6186,10 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>40</v>
@@ -6194,15 +6198,15 @@
         <v>40</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6216,7 +6220,7 @@
         <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>40</v>
@@ -6225,19 +6229,19 @@
         <v>40</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6286,7 +6290,7 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6298,7 +6302,7 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>40</v>
@@ -6307,10 +6311,10 @@
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>40</v>
@@ -6324,10 +6328,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6350,16 +6354,16 @@
         <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6385,13 +6389,13 @@
         <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>40</v>
@@ -6409,37 +6413,37 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>40</v>
@@ -6447,10 +6451,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6473,19 +6477,19 @@
         <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6510,13 +6514,13 @@
         <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>40</v>
@@ -6534,19 +6538,19 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -6555,10 +6559,10 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -6572,10 +6576,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6598,16 +6602,16 @@
         <v>40</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6657,37 +6661,37 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>40</v>
@@ -6695,10 +6699,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6721,16 +6725,16 @@
         <v>40</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6780,37 +6784,37 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>40</v>
@@ -6818,10 +6822,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6835,7 +6839,7 @@
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>40</v>
@@ -6844,19 +6848,19 @@
         <v>40</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -6905,7 +6909,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6917,7 +6921,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
@@ -6926,10 +6930,10 @@
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>40</v>
@@ -6943,10 +6947,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6957,7 +6961,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6969,13 +6973,13 @@
         <v>40</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7026,13 +7030,13 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>40</v>
@@ -7050,7 +7054,7 @@
         <v>40</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>40</v>
@@ -7064,14 +7068,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7090,16 +7094,16 @@
         <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7149,7 +7153,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7161,7 +7165,7 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -7173,7 +7177,7 @@
         <v>40</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
@@ -7187,14 +7191,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7207,25 +7211,25 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -7274,7 +7278,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7286,7 +7290,7 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -7298,7 +7302,7 @@
         <v>40</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>40</v>
@@ -7312,10 +7316,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7338,13 +7342,13 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7395,19 +7399,19 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
@@ -7416,10 +7420,10 @@
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>40</v>
@@ -7433,10 +7437,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7459,13 +7463,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7516,19 +7520,19 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -7537,10 +7541,10 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>40</v>
@@ -7554,10 +7558,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7580,19 +7584,19 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7617,13 +7621,13 @@
         <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>40</v>
@@ -7641,31 +7645,31 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>40</v>
@@ -7679,10 +7683,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7705,19 +7709,19 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -7742,13 +7746,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -7766,7 +7770,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7778,19 +7782,19 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
@@ -7804,10 +7808,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7830,17 +7834,17 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -7889,19 +7893,19 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -7913,7 +7917,7 @@
         <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -7927,10 +7931,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7941,10 +7945,10 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>40</v>
@@ -7953,13 +7957,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8010,19 +8014,19 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -8031,10 +8035,10 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8048,10 +8052,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8071,19 +8075,19 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8133,7 +8137,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8145,7 +8149,7 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8154,10 +8158,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8171,10 +8175,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8194,19 +8198,19 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8256,7 +8260,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8268,7 +8272,7 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -8277,10 +8281,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8294,10 +8298,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8317,22 +8321,22 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -8381,7 +8385,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8393,7 +8397,7 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -8402,10 +8406,10 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -8419,10 +8423,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8433,7 +8437,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -8445,13 +8449,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8502,13 +8506,13 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>40</v>
@@ -8526,7 +8530,7 @@
         <v>40</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -8540,14 +8544,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8566,16 +8570,16 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8625,7 +8629,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8637,7 +8641,7 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -8649,7 +8653,7 @@
         <v>40</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -8663,14 +8667,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8683,25 +8687,25 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -8750,7 +8754,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8762,7 +8766,7 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -8774,7 +8778,7 @@
         <v>40</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -8788,10 +8792,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8799,10 +8803,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -8811,22 +8815,22 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
@@ -8851,13 +8855,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -8875,34 +8879,34 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>40</v>
@@ -8913,10 +8917,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8927,7 +8931,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -8936,22 +8940,22 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9000,37 +9004,37 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>40</v>
@@ -9038,10 +9042,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9052,7 +9056,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -9064,19 +9068,19 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -9101,13 +9105,13 @@
         <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>40</v>
@@ -9125,19 +9129,19 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
@@ -9146,10 +9150,10 @@
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
@@ -9163,14 +9167,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9189,19 +9193,19 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -9226,13 +9230,13 @@
         <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>40</v>
@@ -9250,7 +9254,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9262,25 +9266,25 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>40</v>
@@ -9288,10 +9292,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9317,16 +9321,16 @@
         <v>40</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -9375,7 +9379,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9387,7 +9391,7 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -9396,10 +9400,10 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,8 +93,8 @@
   - `L` -&gt; http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation#L
   - 'H' -&gt; http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation#H
 - `observedStatus` (mock data has `F`, `C`, ) (? final vs preliminary ?)
-- `testIdentifier` -&gt; `.code` -- where "LN" is Loinc
-- `referenceRange` -&gt; `.referenceRange.text` -- don't try to break out further as there is little use of this value
+- `testIdentifier` -&gt; `.code` -- where LN is Loinc
+- `referenceRange` -&gt; `.referenceRange.text` -- dont try to break out further as there is little use of this value
 - `labCommentEvents` -&gt; `.note.text`
 - value[x] either String or Quantity with units
 - `observationValue` -&gt; `.valueQuantity.value`
@@ -105,8 +105,8 @@
 - given this is contained in the DiagnosticReport, then 
   - effective[x] is presumed from the DiagnosticReport
   - issued is presumed from the DiagnosticReport
-  - specimen is presumed from the DiagnosticReport
-- will not have a `.hasMember` as this is results not a panel</t>
+- `specimen` -&gt; specimen
+- `basedOn` -&gt; ServiceRequest</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -544,7 +544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chOrder)
 </t>
   </si>
   <si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>ServiceRequest (labTestPromises.orderedTestCode)</t>
   </si>
   <si>
     <t>Observation.partOf</t>
@@ -1256,7 +1259,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chSpecimen)
 </t>
   </si>
   <si>
@@ -1279,6 +1282,9 @@
   </si>
   <si>
     <t>704319004 |Inherent in|</t>
+  </si>
+  <si>
+    <t>Specimen (labTestPromises.specimen)</t>
   </si>
   <si>
     <t>Observation.device</t>
@@ -1336,6 +1342,9 @@
   </si>
   <si>
     <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>referenceRange</t>
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
@@ -3374,13 +3383,13 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>83</v>
@@ -3481,19 +3490,19 @@
         <v>83</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3512,16 +3521,16 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3571,7 +3580,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3586,16 +3595,16 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3609,10 +3618,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3638,16 +3647,16 @@
         <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3672,11 +3681,11 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
@@ -3694,7 +3703,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>94</v>
@@ -3709,33 +3718,33 @@
         <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3758,19 +3767,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3798,26 +3807,26 @@
         <v>118</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3841,27 +3850,27 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -3883,19 +3892,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3905,7 +3914,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3923,10 +3932,10 @@
         <v>118</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3944,7 +3953,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3968,10 +3977,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3982,14 +3991,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4008,19 +4017,19 @@
         <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -4045,13 +4054,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -4069,7 +4078,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>94</v>
@@ -4084,33 +4093,33 @@
         <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4133,13 +4142,13 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4190,7 +4199,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4214,7 +4223,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4228,10 +4237,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4260,7 +4269,7 @@
         <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>143</v>
@@ -4301,19 +4310,19 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4337,7 +4346,7 @@
         <v>83</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4351,10 +4360,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4377,19 +4386,19 @@
         <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4438,7 +4447,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4459,10 +4468,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4471,15 +4480,15 @@
         <v>83</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4502,19 +4511,19 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4563,7 +4572,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4584,10 +4593,10 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4596,15 +4605,15 @@
         <v>83</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4627,19 +4636,19 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4688,7 +4697,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4703,33 +4712,33 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4752,16 +4761,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4811,7 +4820,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4832,13 +4841,13 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4849,14 +4858,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4875,19 +4884,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4936,7 +4945,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4951,19 +4960,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4974,14 +4983,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5000,19 +5009,19 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5061,7 +5070,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5070,25 +5079,25 @@
         <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5099,10 +5108,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5125,16 +5134,16 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5184,7 +5193,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5205,13 +5214,13 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5222,10 +5231,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5248,17 +5257,17 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5307,7 +5316,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5322,33 +5331,33 @@
         <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5371,19 +5380,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5420,17 +5429,17 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5439,28 +5448,28 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>83</v>
@@ -5468,13 +5477,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>83</v>
@@ -5496,19 +5505,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5557,7 +5566,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5566,42 +5575,42 @@
         <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>83</v>
@@ -5623,19 +5632,19 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5684,7 +5693,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5693,39 +5702,39 @@
         <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5748,19 +5757,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5785,11 +5794,11 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5807,7 +5816,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5816,7 +5825,7 @@
         <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>106</v>
@@ -5831,7 +5840,7 @@
         <v>137</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5845,14 +5854,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5871,19 +5880,19 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5908,13 +5917,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5932,7 +5941,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5950,19 +5959,19 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>83</v>
@@ -5970,10 +5979,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5996,13 +6005,13 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6053,7 +6062,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6077,7 +6086,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6091,10 +6100,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6123,7 +6132,7 @@
         <v>141</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>143</v>
@@ -6164,19 +6173,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6200,7 +6209,7 @@
         <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6214,10 +6223,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6240,19 +6249,19 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6301,7 +6310,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6322,10 +6331,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6334,15 +6343,15 @@
         <v>83</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6365,19 +6374,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6426,7 +6435,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6447,10 +6456,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6459,15 +6468,15 @@
         <v>83</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6490,19 +6499,19 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6551,7 +6560,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6572,10 +6581,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6584,15 +6593,15 @@
         <v>83</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6615,16 +6624,16 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6650,13 +6659,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6674,7 +6683,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6692,19 +6701,19 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>83</v>
@@ -6712,10 +6721,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6738,19 +6747,19 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6775,13 +6784,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6799,7 +6808,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6820,10 +6829,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6837,10 +6846,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6851,10 +6860,10 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
@@ -6863,16 +6872,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6922,7 +6931,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6940,30 +6949,30 @@
         <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6986,16 +6995,16 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7045,7 +7054,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7063,19 +7072,19 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>83</v>
@@ -7083,10 +7092,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7109,19 +7118,19 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7170,7 +7179,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7182,7 +7191,7 @@
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7191,10 +7200,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7203,15 +7212,15 @@
         <v>83</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7234,13 +7243,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7291,7 +7300,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7315,7 +7324,7 @@
         <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7329,10 +7338,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7361,7 +7370,7 @@
         <v>141</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>143</v>
@@ -7414,7 +7423,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7438,7 +7447,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7452,14 +7461,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7481,10 +7490,10 @@
         <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7539,7 +7548,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7577,10 +7586,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7603,13 +7612,13 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7660,7 +7669,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7669,7 +7678,7 @@
         <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>106</v>
@@ -7681,10 +7690,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7698,10 +7707,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7724,13 +7733,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7781,7 +7790,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7790,7 +7799,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7802,10 +7811,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7819,10 +7828,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7845,19 +7854,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7885,10 +7894,10 @@
         <v>118</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7906,7 +7915,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7924,13 +7933,13 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7944,10 +7953,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7970,19 +7979,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8007,13 +8016,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8031,7 +8040,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8049,13 +8058,13 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8069,10 +8078,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8095,17 +8104,17 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8154,7 +8163,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8178,7 +8187,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8192,10 +8201,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8218,13 +8227,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8275,7 +8284,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8296,10 +8305,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8313,10 +8322,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8339,16 +8348,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8398,7 +8407,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8419,10 +8428,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8436,10 +8445,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8462,16 +8471,16 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8521,7 +8530,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8542,10 +8551,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8559,10 +8568,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8585,19 +8594,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8646,7 +8655,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8667,10 +8676,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8684,10 +8693,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8710,13 +8719,13 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8767,7 +8776,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8791,7 +8800,7 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8805,10 +8814,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8837,7 +8846,7 @@
         <v>141</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>143</v>
@@ -8890,7 +8899,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8914,7 +8923,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8928,14 +8937,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8957,10 +8966,10 @@
         <v>140</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9015,7 +9024,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9053,10 +9062,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9079,19 +9088,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9116,13 +9125,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9140,7 +9149,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>94</v>
@@ -9158,16 +9167,16 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9178,10 +9187,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9204,19 +9213,19 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9265,7 +9274,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9283,19 +9292,19 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>83</v>
@@ -9303,10 +9312,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9329,19 +9338,19 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9366,13 +9375,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9390,7 +9399,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9399,7 +9408,7 @@
         <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>106</v>
@@ -9414,7 +9423,7 @@
         <v>137</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9428,14 +9437,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9454,19 +9463,19 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9491,13 +9500,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9515,7 +9524,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9533,19 +9542,19 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>83</v>
@@ -9553,10 +9562,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9582,16 +9591,16 @@
         <v>83</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9640,7 +9649,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9661,10 +9670,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,11 +102,12 @@
 - `observationUnits.code` -&gt; `.valueQuantity.code` - likely need to adjust some
 - `observationUnits.codingSystem` -&gt; `.valueQuantity.system`
 - `performingOrganization` -&gt; `.performer`
-- given this is contained in the DiagnosticReport, then 
-  - effective[x] is presumed from the DiagnosticReport
-  - issued is presumed from the DiagnosticReport
-- `specimen` -&gt; specimen
-- `basedOn` -&gt; ServiceRequest</t>
+- `labCommentEvents` -&gt; '.note`
+- `effective[x]` is same as the DiagnosticReport
+- `issued` is same as the DiagnosticReport
+- `specimen` = specimen
+- `basedOn` = ServiceRequest
+- `ObservationStatus' -&gt; [concept map translation](ConceptMap-VF-ChemistryResult-ObservationStatus.html) -&gt; `.status`</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -259,6 +260,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: HDR labTests to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -275,9 +279,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HDR labTests to mhv-fhir-phr</t>
   </si>
   <si>
     <t>Vital Signs
@@ -307,6 +308,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
+    <t>HDR labTests</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -317,9 +321,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>HDR labTests</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -557,6 +558,9 @@
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
+    <t>ServiceRequest (labTestPromises.orderedTestCode)</t>
+  </si>
+  <si>
     <t>Event.basedOn</t>
   </si>
   <si>
@@ -564,9 +568,6 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>ServiceRequest (labTestPromises.orderedTestCode)</t>
   </si>
   <si>
     <t>Observation.partOf</t>
@@ -601,7 +602,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>observedStatus</t>
+    <t>observationStatus</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -619,6 +620,9 @@
     <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
+    <t>~observationStatus map with VF-ChemistryResult-ObservationStatus()</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -632,9 +636,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>~observedStatus</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -844,6 +845,9 @@
     <t>Observations have no value if you don't know who or what they're about.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -854,9 +858,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>Observation.focus</t>
@@ -936,6 +937,10 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">us-core-1
 </t>
   </si>
@@ -956,6 +961,19 @@
     <t>FiveWs.done[x]</t>
   </si>
   <si>
+    <t>Observation.effective[x]:effectiveDateTime</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>ConvertDate(labTestPromises.specimen.specimenTakenDate)</t>
+  </si>
+  <si>
     <t>Observation.issued</t>
   </si>
   <si>
@@ -972,6 +990,9 @@
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
+    <t>ConvertDate(labTestPromises.reportCompleDate.literal)</t>
+  </si>
+  <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
   </si>
   <si>
@@ -997,6 +1018,9 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t>GetOrganization(performingOrganization)</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1007,9 +1031,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>GetOrganization(performingOrganization)</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1031,10 +1052,6 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>closed</t>
   </si>
   <si>
@@ -1272,6 +1289,9 @@
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
+    <t>Specimen (labTestPromises.specimen)</t>
+  </si>
+  <si>
     <t>&lt; 123038009 |Specimen|</t>
   </si>
   <si>
@@ -1282,9 +1302,6 @@
   </si>
   <si>
     <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
-    <t>Specimen (labTestPromises.specimen)</t>
   </si>
   <si>
     <t>Observation.device</t>
@@ -1338,13 +1355,13 @@
 obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
   </si>
   <si>
+    <t>referenceRange</t>
+  </si>
+  <si>
     <t>OBX.7</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>referenceRange</t>
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
@@ -1956,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ62"/>
+  <dimension ref="A1:AQ63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1967,7 +1984,7 @@
   <cols>
     <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2000,13 +2017,13 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="71.8515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="71.8515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2254,13 +2271,13 @@
         <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2864,10 +2881,10 @@
         <v>83</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>83</v>
@@ -2987,10 +3004,10 @@
         <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>83</v>
@@ -3110,10 +3127,10 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>83</v>
@@ -3235,10 +3252,10 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>83</v>
@@ -3349,22 +3366,22 @@
         <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>83</v>
@@ -3475,22 +3492,22 @@
         <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>169</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -3595,19 +3612,19 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>83</v>
@@ -3733,10 +3750,10 @@
         <v>190</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3841,7 +3858,7 @@
         <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>83</v>
@@ -3850,16 +3867,16 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AP15" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AQ15" t="s" s="2">
-        <v>194</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -3977,13 +3994,13 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>83</v>
@@ -4093,25 +4110,25 @@
         <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AP17" t="s" s="2">
+      <c r="AQ17" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -4223,10 +4240,10 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
@@ -4346,10 +4363,10 @@
         <v>83</v>
       </c>
       <c r="AN19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
@@ -4462,25 +4479,25 @@
         <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AO20" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>236</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -4587,25 +4604,25 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AO21" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -4715,10 +4732,10 @@
         <v>257</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>259</v>
@@ -4727,10 +4744,10 @@
         <v>260</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -4841,16 +4858,16 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AO23" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AP23" t="s" s="2">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>83</v>
@@ -4960,22 +4977,22 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>83</v>
@@ -4997,7 +5014,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>95</v>
@@ -5058,16 +5075,14 @@
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>279</v>
@@ -5079,19 +5094,19 @@
         <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>290</v>
@@ -5100,7 +5115,7 @@
         <v>291</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>83</v>
@@ -5108,24 +5123,26 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>83</v>
@@ -5134,18 +5151,20 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
       </c>
@@ -5193,7 +5212,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5202,28 +5221,28 @@
         <v>94</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>83</v>
@@ -5231,10 +5250,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5245,7 +5264,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>95</v>
@@ -5257,18 +5276,18 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>304</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5316,13 +5335,13 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
@@ -5331,33 +5350,33 @@
         <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AQ27" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5368,7 +5387,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>95</v>
@@ -5380,19 +5399,17 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5429,47 +5446,49 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>318</v>
+        <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>319</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>83</v>
@@ -5477,14 +5496,12 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5505,19 +5522,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5554,19 +5571,17 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5575,28 +5590,28 @@
         <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>328</v>
@@ -5607,7 +5622,7 @@
         <v>329</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>330</v>
@@ -5632,19 +5647,19 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5693,7 +5708,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5702,41 +5717,43 @@
         <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5745,7 +5762,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>95</v>
@@ -5754,22 +5771,22 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5794,11 +5811,13 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5816,7 +5835,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5825,50 +5844,50 @@
         <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>83</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>95</v>
@@ -5883,16 +5902,16 @@
         <v>193</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5919,11 +5938,9 @@
       <c r="X32" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5941,16 +5958,16 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>106</v>
@@ -5959,19 +5976,19 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>83</v>
@@ -5979,24 +5996,24 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>83</v>
@@ -6005,16 +6022,20 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -6038,13 +6059,13 @@
         <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>83</v>
@@ -6062,19 +6083,19 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6083,38 +6104,38 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>83</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6126,17 +6147,15 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6173,31 +6192,31 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
@@ -6209,10 +6228,10 @@
         <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>83</v>
@@ -6223,14 +6242,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6246,23 +6265,21 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6298,19 +6315,19 @@
         <v>83</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6322,7 +6339,7 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -6331,27 +6348,27 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>356</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6362,10 +6379,10 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>83</v>
@@ -6374,19 +6391,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6435,13 +6452,13 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
@@ -6450,33 +6467,33 @@
         <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>359</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6487,7 +6504,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>95</v>
@@ -6496,22 +6513,22 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>361</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6560,13 +6577,13 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
@@ -6575,33 +6592,33 @@
         <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6612,10 +6629,10 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>83</v>
@@ -6624,18 +6641,20 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6659,13 +6678,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6683,13 +6702,13 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
@@ -6698,22 +6717,22 @@
         <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>83</v>
@@ -6721,10 +6740,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6750,17 +6769,15 @@
         <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6784,13 +6801,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6808,7 +6825,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6829,27 +6846,27 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6860,10 +6877,10 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
@@ -6872,18 +6889,20 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>389</v>
+        <v>193</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6907,13 +6926,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6931,7 +6950,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6949,30 +6968,30 @@
         <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>397</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6983,10 +7002,10 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>83</v>
@@ -6995,16 +7014,16 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7054,7 +7073,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7069,33 +7088,33 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>406</v>
+        <v>83</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7106,10 +7125,10 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>83</v>
@@ -7118,20 +7137,18 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7179,19 +7196,19 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>413</v>
+        <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7200,27 +7217,27 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7231,10 +7248,10 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>83</v>
@@ -7243,16 +7260,20 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7300,22 +7321,22 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>227</v>
+        <v>412</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>83</v>
+        <v>418</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>83</v>
+        <v>419</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>83</v>
@@ -7324,10 +7345,10 @@
         <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>228</v>
+        <v>420</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7338,21 +7359,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7364,17 +7385,15 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7423,19 +7442,19 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7447,10 +7466,10 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7461,14 +7480,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>420</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7481,26 +7500,24 @@
         <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>421</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>422</v>
+        <v>230</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O45" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7548,7 +7565,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>423</v>
+        <v>233</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7572,10 +7589,10 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7593,26 +7610,26 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>425</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>426</v>
@@ -7620,8 +7637,12 @@
       <c r="M46" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7669,19 +7690,19 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>428</v>
+        <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7690,13 +7711,13 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7707,10 +7728,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7733,13 +7754,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7790,7 +7811,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7799,7 +7820,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7811,13 +7832,13 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>434</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -7828,10 +7849,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7854,20 +7875,16 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>430</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N48" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="O48" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7891,13 +7908,13 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>440</v>
+        <v>83</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7915,7 +7932,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7924,7 +7941,7 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>83</v>
+        <v>433</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7933,16 +7950,16 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>350</v>
+        <v>434</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>83</v>
+        <v>439</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -7953,10 +7970,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7982,16 +7999,16 @@
         <v>193</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8016,13 +8033,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>372</v>
+        <v>118</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8040,13 +8057,13 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>83</v>
@@ -8058,16 +8075,16 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8078,10 +8095,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8104,17 +8121,19 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8139,13 +8158,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8163,13 +8182,13 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
@@ -8184,13 +8203,13 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>83</v>
@@ -8201,10 +8220,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8215,10 +8234,10 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>83</v>
@@ -8227,7 +8246,7 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>224</v>
+        <v>457</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>458</v>
@@ -8236,7 +8255,9 @@
         <v>459</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8284,7 +8305,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8305,13 +8326,13 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8322,10 +8343,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8336,19 +8357,19 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>462</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>463</v>
@@ -8356,9 +8377,7 @@
       <c r="M52" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N52" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8407,13 +8426,13 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
@@ -8428,13 +8447,13 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>465</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8445,10 +8464,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8471,16 +8490,16 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8530,7 +8549,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8551,13 +8570,13 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8568,10 +8587,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8594,7 +8613,7 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>475</v>
@@ -8605,9 +8624,7 @@
       <c r="N54" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8655,7 +8672,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8676,13 +8693,13 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>479</v>
+        <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8693,10 +8710,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8707,7 +8724,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8716,19 +8733,23 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8776,19 +8797,19 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>227</v>
+        <v>479</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
@@ -8800,10 +8821,10 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>228</v>
+        <v>484</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>83</v>
+        <v>485</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -8814,21 +8835,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8840,17 +8861,15 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8899,19 +8918,19 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8923,10 +8942,10 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -8937,14 +8956,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>420</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8957,26 +8976,24 @@
         <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>230</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O57" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9024,7 +9041,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>233</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9048,10 +9065,10 @@
         <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9062,45 +9079,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>487</v>
+        <v>143</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9125,13 +9142,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>488</v>
+        <v>83</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9149,34 +9166,34 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9187,10 +9204,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9198,7 +9215,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>94</v>
@@ -9213,19 +9230,19 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>315</v>
+        <v>213</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9250,13 +9267,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9274,10 +9291,10 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>94</v>
@@ -9292,19 +9309,19 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>321</v>
+        <v>494</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>83</v>
@@ -9312,10 +9329,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9335,10 +9352,10 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>193</v>
+        <v>496</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>497</v>
@@ -9350,7 +9367,7 @@
         <v>499</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9375,13 +9392,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>500</v>
+        <v>83</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9399,7 +9416,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9408,7 +9425,7 @@
         <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>501</v>
+        <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>106</v>
@@ -9420,38 +9437,38 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>137</v>
+        <v>500</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>83</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>83</v>
@@ -9466,16 +9483,16 @@
         <v>193</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>343</v>
+        <v>503</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>344</v>
+        <v>504</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9503,10 +9520,10 @@
         <v>214</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>346</v>
+        <v>505</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9524,16 +9541,16 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>83</v>
+        <v>506</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>106</v>
@@ -9542,19 +9559,19 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>83</v>
@@ -9562,14 +9579,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9588,19 +9605,19 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>504</v>
+        <v>347</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>505</v>
+        <v>348</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9625,13 +9642,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9649,7 +9666,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9670,23 +9687,148 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ62" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ62">
+  <autoFilter ref="A1:AQ63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9696,7 +9838,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
